--- a/biology/Botanique/Jardin_de_la_Ménagerie_(Sceaux)/Jardin_de_la_Ménagerie_(Sceaux).xlsx
+++ b/biology/Botanique/Jardin_de_la_Ménagerie_(Sceaux)/Jardin_de_la_Ménagerie_(Sceaux).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_de_la_M%C3%A9nagerie_(Sceaux)</t>
+          <t>Jardin_de_la_Ménagerie_(Sceaux)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Carte interactive du Jardin de la Ménagerie
-Le Jardin de la Ménagerie, un temps appelé « Petit parc de Sceaux », est un jardin public situé à Sceaux dans le département des Hauts-de-Seine. Site classé[1], ce jardin est surtout connu pour avoir accueilli au XIXe siècle le bal de Sceaux, immortalisé par Honoré de Balzac (voir Le bal de Sceaux).
+Le Jardin de la Ménagerie, un temps appelé « Petit parc de Sceaux », est un jardin public situé à Sceaux dans le département des Hauts-de-Seine. Site classé, ce jardin est surtout connu pour avoir accueilli au XIXe siècle le bal de Sceaux, immortalisé par Honoré de Balzac (voir Le bal de Sceaux).
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_de_la_M%C3%A9nagerie_(Sceaux)</t>
+          <t>Jardin_de_la_Ménagerie_(Sceaux)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Au XVIIe siècle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Déjà appelé « ménagerie » au XVIIe siècle, le lieu comptait un moulin et une ferme en forme de  « L ». C'est la présence de cette ferme qui pourrait expliquer l'origine du nom de ce jardin[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Déjà appelé « ménagerie » au XVIIe siècle, le lieu comptait un moulin et une ferme en forme de  « L ». C'est la présence de cette ferme qui pourrait expliquer l'origine du nom de ce jardin.
 Colbert fait aménager le jardin pour accueillir deux grands réservoirs d’eau destinés à récolter et redistribuer l’eau de l’étang du Plessis-Piquet vers la cascade du domaine de Sceaux.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_de_la_M%C3%A9nagerie_(Sceaux)</t>
+          <t>Jardin_de_la_Ménagerie_(Sceaux)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Au XVIIIe siècle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La duchesse du Maine demande à La Guépière de concevoir ici un jardin vers 1720, le jardin est terminé en 1722.
 Des jardins d’agréments entourent le pavillon central ; au sud, des potagers jouxtent la ferme. Les animaux de la "ménagerie" sont ceux de la basse-cour et des réservoirs d’eau peuplés de poissons, de canards et d’oies.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardin_de_la_M%C3%A9nagerie_(Sceaux)</t>
+          <t>Jardin_de_la_Ménagerie_(Sceaux)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Au XIXe siècle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 À la suite du rachat du jardin et du domaine de Sceaux par Jean-François Hippolyte Lecomte, quarante-quatre habitants créent la Société Propriétaire du Jardin et des Eaux de Sceaux pour racheter le jardin à M. Lecomte et éviter une vente en lots du jardin. L’histoire du jardin de la ménagerie se sépare ainsi de celle du domaine de Sceaux. Un message est installé à l’entrée du jardin pour indiquer la vocation publique souhaitée par la société pour le jardin :
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jardin_de_la_M%C3%A9nagerie_(Sceaux)</t>
+          <t>Jardin_de_la_Ménagerie_(Sceaux)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>De nos jours</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Jardin de la Ménagerie, appelé communément la "Ménagerie", est aujourd’hui un lieu de convivialité et de rencontre pour les visiteurs et les habitants de Sceaux. On y trouve une aire de jeu pour enfants, des terrains de tennis (en lieu et place de la rotonde de l'ancien bal), un skate-park, un manège, et l’office de tourisme de Sceaux.
 </t>
